--- a/documentos/comparacion-de-precios-en-excel.xlsx
+++ b/documentos/comparacion-de-precios-en-excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cecil\Downloads\A subir corrección\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\adson\adson2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC19CC-68E0-4ED4-A7EC-6FACE8912EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB20CAF-5B34-473C-810E-B2BA48AB7A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-5110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="- AYUDA -" sheetId="5" r:id="rId1"/>
@@ -928,6 +928,318 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFFFFF66"/>
@@ -935,31 +1247,6 @@
         <right style="thin">
           <color rgb="FFFFFF66"/>
         </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -1002,34 +1289,28 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFF66"/>
+          </stop>
+        </gradientFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF66"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF66"/>
+        </top>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1093,36 +1374,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -1168,36 +1419,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -1221,39 +1442,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1265,39 +1453,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1316,39 +1471,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1390,7 +1512,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1405,20 +1527,16 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom style="medium">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1448,101 +1566,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1582,36 +1605,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1635,36 +1628,6 @@
         <bottom style="medium">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2557,8 +2520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8155783" y="1062196"/>
-          <a:ext cx="3930955" cy="4679112"/>
+          <a:off x="8643939" y="1059656"/>
+          <a:ext cx="4207180" cy="4766425"/>
           <a:chOff x="8717264" y="1217930"/>
           <a:chExt cx="4350690" cy="4704195"/>
         </a:xfrm>
@@ -3035,33 +2998,33 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Comparación_precios" displayName="Comparación_precios" ref="B8:L25" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CANTIDAD" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CANTIDAD" dataDxfId="24" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="8">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios[[CANTIDAD]:[CANTIDAD]],Comparación_precios[PROVEEDOR 1]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="7">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios[[CANTIDAD]:[CANTIDAD]],Comparación_precios[PROVEEDOR 2]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="6">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios[[CANTIDAD]:[CANTIDAD]],Comparación_precios[PROVEEDOR 3]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="5">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios[[CANTIDAD]:[CANTIDAD]],Comparación_precios[PROVEEDOR 4]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="4">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios[[CANTIDAD]:[CANTIDAD]],Comparación_precios[PROVEEDOR 5]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="3">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios[[CANTIDAD]:[CANTIDAD]],Comparación_precios[PROVEEDOR 6]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="17" totalsRowDxfId="2">
       <calculatedColumnFormula>MIN(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="16" totalsRowDxfId="1">
       <calculatedColumnFormula>IFERROR(AVERAGE(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="15" totalsRowDxfId="0">
       <calculatedColumnFormula>MAX(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3070,9 +3033,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3110,9 +3073,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3145,26 +3108,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3197,26 +3143,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3396,15 +3325,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="18" customWidth="1"/>
-    <col min="2" max="11" width="22.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="18" customWidth="1"/>
+    <col min="2" max="11" width="22.1640625" style="18" customWidth="1"/>
     <col min="12" max="16384" width="12" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3416,8 +3345,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
@@ -3431,7 +3360,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3443,28 +3372,28 @@
   <dimension ref="B1:N42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3477,15 +3406,15 @@
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
     </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
@@ -3502,14 +3431,14 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J7" s="61" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="63"/>
     </row>
-    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
@@ -3544,29 +3473,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
       <c r="C9" s="32"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="9">
+        <v>100</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="13">
         <f>MIN(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="14">
         <f>MAX(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
       <c r="C10" s="32"/>
       <c r="D10" s="9"/>
@@ -3588,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
       <c r="C11" s="32"/>
       <c r="D11" s="9"/>
@@ -3610,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9"/>
       <c r="C12" s="32"/>
       <c r="D12" s="9"/>
@@ -3632,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
       <c r="C13" s="32"/>
       <c r="D13" s="9"/>
@@ -3654,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" s="7" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="C14" s="32"/>
       <c r="D14" s="9"/>
@@ -3676,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="49"/>
       <c r="C15" s="50"/>
       <c r="D15" s="49"/>
@@ -3698,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="49"/>
       <c r="C16" s="50"/>
       <c r="D16" s="49"/>
@@ -3720,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
       <c r="D17" s="49"/>
@@ -3742,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="44"/>
@@ -3764,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
@@ -3786,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
@@ -3808,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
@@ -3830,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
@@ -3852,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="42"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
@@ -3874,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
@@ -3896,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
         <v>24</v>
       </c>
@@ -3929,7 +3864,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3942,7 +3877,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3955,7 +3890,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="66" t="s">
         <v>11</v>
       </c>
@@ -3966,7 +3901,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="64" t="s">
         <v>12</v>
       </c>
@@ -3978,7 +3913,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="64" t="s">
         <v>13</v>
       </c>
@@ -3990,7 +3925,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="64" t="s">
         <v>14</v>
       </c>
@@ -4002,7 +3937,7 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B32" s="64"/>
       <c r="C32" s="65"/>
       <c r="D32" s="54"/>
@@ -4012,7 +3947,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B33" s="64"/>
       <c r="C33" s="65"/>
       <c r="D33" s="55"/>
@@ -4022,7 +3957,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B34" s="64"/>
       <c r="C34" s="65"/>
       <c r="D34" s="56"/>
@@ -4035,17 +3970,17 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
@@ -4056,7 +3991,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
@@ -4064,7 +3999,7 @@
       <c r="H38" s="40"/>
       <c r="I38" s="37"/>
     </row>
-    <row r="39" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
@@ -4072,7 +4007,7 @@
       <c r="H39" s="40"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -4080,7 +4015,7 @@
       <c r="H40" s="40"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -4088,7 +4023,7 @@
       <c r="H41" s="40"/>
       <c r="I41" s="37"/>
     </row>
-    <row r="42" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -4105,19 +4040,19 @@
     <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="D25:I25 D8:I8">
-    <cfRule type="expression" dxfId="3" priority="42">
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>AND(B$25=MIN($D$25:$I$25),B$25&lt;&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:I8 D25:I25">
+    <cfRule type="expression" dxfId="13" priority="42">
       <formula>AND(D$25=MIN($D$25:$I$25),D$25&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:I24">
-    <cfRule type="expression" dxfId="2" priority="46">
+    <cfRule type="expression" dxfId="12" priority="46">
       <formula>AND(D$25=MIN($D$25:$I$25),D$25&lt;&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(B$25=MIN($D$25:$I$25),B$25&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4137,14 +4072,14 @@
       <selection activeCell="B28" sqref="B28:I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="4" max="9" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="4" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>18</v>
       </c>
@@ -4170,7 +4105,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
         <v>19</v>
       </c>
@@ -4196,7 +4131,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="s">
         <v>20</v>
       </c>
@@ -4222,7 +4157,7 @@
         <v>452.4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>25</v>
       </c>
@@ -4248,7 +4183,7 @@
         <v>407.16</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
         <v>21</v>
       </c>
@@ -4274,7 +4209,7 @@
         <v>366.44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="49" t="s">
         <v>22</v>
       </c>
@@ -4300,7 +4235,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D19" s="51">
         <v>30</v>
       </c>
@@ -4320,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D20" s="52">
         <v>10</v>
       </c>
@@ -4340,7 +4275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D21" s="53" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D22" s="54" t="s">
         <v>1</v>
       </c>
@@ -4380,7 +4315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D23" s="55"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -4388,7 +4323,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.2">
       <c r="D24" s="56"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -4396,8 +4331,8 @@
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="27" spans="2:9" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="s">
         <v>26</v>
       </c>
@@ -4423,7 +4358,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="49" t="s">
         <v>27</v>
       </c>
@@ -4449,7 +4384,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="49" t="s">
         <v>28</v>
       </c>
@@ -4475,44 +4410,44 @@
         <v>550</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="59" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B36" s="57">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B37" s="58">
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B38" s="58">
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B39" s="58">
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B40" s="58">
         <v>420</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B41" s="58">
         <v>199</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D7:I12 D28:I30">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(D$15=MIN($D$15:$I$15),D$15&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documentos/comparacion-de-precios-en-excel.xlsx
+++ b/documentos/comparacion-de-precios-en-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\adson\adson2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB20CAF-5B34-473C-810E-B2BA48AB7A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15A298-4BFA-4927-BE5A-985167D747A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3371,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3485,7 +3485,9 @@
       <c r="F9" s="9">
         <v>100</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>200</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="13">
@@ -3494,11 +3496,11 @@
       </c>
       <c r="K9" s="8">
         <f>IFERROR(AVERAGE(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L9" s="14">
         <f>MAX(Comparación_precios[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
